--- a/mapping/mml_base_clinic_mapping.xlsx
+++ b/mapping/mml_base_clinic_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="134">
   <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
@@ -26,9 +26,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Elements　</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>1.2.</t>
   </si>
   <si>
-    <t>1.3.</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -64,269 +58,428 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>1.1.1.</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>1.2.1.</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
     <t>mmlBc:BaseClinicModule</t>
-  </si>
-  <si>
-    <t>mmlBc:allergy</t>
-  </si>
-  <si>
-    <t>1.1.1.</t>
-  </si>
-  <si>
-    <t>mmlBc:allergyItem</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>1.1.1.1.</t>
-  </si>
-  <si>
-    <t>mmlBc:factor</t>
-  </si>
-  <si>
-    <t>1.1.1.2.</t>
-  </si>
-  <si>
-    <t>mmlBc:severity</t>
-  </si>
-  <si>
-    <t>MML0017</t>
-  </si>
-  <si>
-    <t>1.1.1.3.</t>
-  </si>
-  <si>
-    <t>mmlBc:identifiedDate</t>
-  </si>
-  <si>
-    <t>1.1.1.4.</t>
-  </si>
-  <si>
-    <t>mmlBc:memo</t>
-  </si>
-  <si>
-    <t>mmlBc:bloodtype</t>
-  </si>
-  <si>
-    <t>1.2.1.</t>
-  </si>
-  <si>
-    <t>mmlBc:abo</t>
-  </si>
-  <si>
-    <t>MML0018</t>
-  </si>
-  <si>
-    <t>1.2.2.</t>
-  </si>
-  <si>
-    <t>mmlBc:rh</t>
-  </si>
-  <si>
-    <t>MML0019</t>
-  </si>
-  <si>
-    <t>1.2.3.</t>
-  </si>
-  <si>
-    <t>mmlBc:others</t>
-  </si>
-  <si>
-    <t>1.2.3.1.</t>
-  </si>
-  <si>
-    <t>mmlBc:other</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>1.2.3.1.1.</t>
-  </si>
-  <si>
-    <t>mmlBc:typeName</t>
-  </si>
-  <si>
-    <t>1.2.3.1.2.</t>
-  </si>
-  <si>
-    <t>mmlBc:typeJudgement</t>
-  </si>
-  <si>
-    <t>1.2.3.1.3.</t>
-  </si>
-  <si>
-    <t>mmlBc:description</t>
-  </si>
-  <si>
-    <t>1.2.4.</t>
-  </si>
-  <si>
-    <t>mmlBc:infection</t>
-  </si>
-  <si>
-    <t>1.3.1.</t>
-  </si>
-  <si>
-    <t>mmlBc:infectionItem</t>
-  </si>
-  <si>
-    <t>1.3.1.1.</t>
-  </si>
-  <si>
-    <t>1.3.1.2.</t>
-  </si>
-  <si>
-    <t>mmlBc:examValue</t>
-  </si>
-  <si>
-    <t>1.3.1.3.</t>
-  </si>
-  <si>
-    <t>1.3.1.4.</t>
-  </si>
-  <si>
-    <t>mmlBc:BaseClinicModule</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openEHR-EHR-COMPOSITION.review.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openEHR-EHR-EVALUATION.adverse_reaction_fhir-mml.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>substance</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir-mml.v1 and name/value='Adverse Reaction (FHIR/openEHR) for MML']/data[at0001]/items[at0002]</t>
-  </si>
-  <si>
-    <t>Reaction event /Severity of Reaction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir-mml.v1 and name/value='Adverse Reaction (FHIR/openEHR) for MML']/data[at0001]/items[at0009 and name/value='Reaction Event']/items[at0089]</t>
-  </si>
-  <si>
-    <t>Reaction event/Onset description</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir-mml.v1 and name/value='Adverse Reaction (FHIR/openEHR) for MML']/data[at0001]/items[at0009 and name/value='Reaction Event']/items[at0.117]</t>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir-mml.v1 and name/value='Adverse Reaction (FHIR/openEHR) for MML']/data[at0001]/items[at0006]</t>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir-mml.v1 and name/value='Adverse Reaction (FHIR/openEHR) for MML']/data[at0001]/items[at0063]</t>
-  </si>
-  <si>
-    <t>valueは Confirmed に固定</t>
-    <rPh sb="18" eb="20">
-      <t>コテイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>mmlPc:ProgressCourseModule</t>
+  </si>
+  <si>
+    <t>mmlPc:FreeExpression</t>
+  </si>
+  <si>
+    <t>mmlCm:extRef</t>
+  </si>
+  <si>
+    <t>mmlPc:structuredExpression</t>
+  </si>
+  <si>
+    <t>mmlPc:problemItem</t>
+  </si>
+  <si>
+    <t>1.2.1.1.</t>
+  </si>
+  <si>
+    <t>mmlPc:problem</t>
+  </si>
+  <si>
+    <t>mmlPc:dxUid</t>
+  </si>
+  <si>
+    <t>#IMPLIED</t>
+  </si>
+  <si>
+    <t>1.2.1.2.</t>
+  </si>
+  <si>
+    <t>mmlPc:subjective</t>
+  </si>
+  <si>
+    <t>1.2.1.2.1.</t>
+  </si>
+  <si>
+    <t>mmlPc:freeNotes</t>
+  </si>
+  <si>
+    <t>1.2.1.2.2.</t>
+  </si>
+  <si>
+    <t>mmlPc:subjectiveItem</t>
+  </si>
+  <si>
+    <t>1.2.1.2.2.1.</t>
+  </si>
+  <si>
+    <t>mmlPc:timeExpression</t>
+  </si>
+  <si>
+    <t>1.2.1.2.2.2.</t>
+  </si>
+  <si>
+    <t>mmlPc:eventExpression</t>
+  </si>
+  <si>
+    <t>1.2.1.3.</t>
+  </si>
+  <si>
+    <t>mmlPc:objective</t>
+  </si>
+  <si>
+    <t>1.2.1.3.1.</t>
+  </si>
+  <si>
+    <t>mmlPc:objectiveNotes</t>
+  </si>
+  <si>
+    <t>1.2.1.3.2.</t>
+  </si>
+  <si>
+    <t>mmlPc:physicalExam</t>
+  </si>
+  <si>
+    <t>1.2.1.3.2.1.</t>
+  </si>
+  <si>
+    <t>mmlPc:physicalExamItem</t>
+  </si>
+  <si>
+    <t>1.2.1.3.2.1.1.</t>
+  </si>
+  <si>
+    <t>mmlPc:title</t>
+  </si>
+  <si>
+    <t>1.2.1.3.2.1.2.</t>
+  </si>
+  <si>
+    <t>mmlPc:result</t>
+  </si>
+  <si>
+    <t>1.2.1.3.2.1.3.</t>
+  </si>
+  <si>
+    <t>mmlPc:interpretation</t>
+  </si>
+  <si>
+    <t>1.2.1.3.2.1.4.</t>
+  </si>
+  <si>
+    <t>mmlPc:referenceInfo</t>
+  </si>
+  <si>
+    <t>1.2.1.3.2.1.4.1.</t>
+  </si>
+  <si>
+    <t>1.2.1.3.3.</t>
+  </si>
+  <si>
+    <t>mmlPc:testResult</t>
+  </si>
+  <si>
+    <t>1.2.1.3.3.1.</t>
+  </si>
+  <si>
+    <t>1.2.1.3.4.</t>
+  </si>
+  <si>
+    <t>mmlPc:rxRecord</t>
+  </si>
+  <si>
+    <t>1.2.1.3.4.1.</t>
+  </si>
+  <si>
+    <t>1.2.1.3.5.</t>
+  </si>
+  <si>
+    <t>mmlPc:txRecord</t>
+  </si>
+  <si>
+    <t>1.2.1.3.5.1.</t>
+  </si>
+  <si>
+    <t>1.2.1.4.</t>
+  </si>
+  <si>
+    <t>mmlPc:assessment</t>
+  </si>
+  <si>
+    <t>1.2.1.4.1.</t>
+  </si>
+  <si>
+    <t>mmlPc:assessmentItem</t>
+  </si>
+  <si>
+    <t>1.2.1.5.</t>
+  </si>
+  <si>
+    <t>mmlPc:plan</t>
+  </si>
+  <si>
+    <t>1.2.1.5.1.</t>
+  </si>
+  <si>
+    <t>mmlPc:testOrder</t>
+  </si>
+  <si>
+    <t>1.2.1.5.1.1.</t>
+  </si>
+  <si>
+    <t>1.2.1.5.2.</t>
+  </si>
+  <si>
+    <t>mmlPc:rxOrder</t>
+  </si>
+  <si>
+    <t>1.2.1.5.2.1.</t>
+  </si>
+  <si>
+    <t>1.2.1.5.3.</t>
+  </si>
+  <si>
+    <t>mmlPc:txOrder</t>
+  </si>
+  <si>
+    <t>1.2.1.5.3.1.</t>
+  </si>
+  <si>
+    <t>1.2.1.5.4.</t>
+  </si>
+  <si>
+    <t>mmlPc:planNotes</t>
+  </si>
+  <si>
+    <t>openEHR-EHR-COMPOSITION.progress_note.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Synopsis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-EVALUATION.problem_diagnosis.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Problem/Diagnosis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Related Item/Item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis.v1 and name/value='Problem/Diagnosis']/data[at0001]/items[at0002]</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis.v1 and name/value='Problem/Diagnosis']/data[at0001]/items[at0027 and name/value='Related Item']/items[at0028]</t>
+  </si>
+  <si>
+    <t>openEHR-EHR-SECTION.soap.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-OBSERVATION.progress_note.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Progress Note</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.progress_note.v1 and name/value='Progress Note']/data[at0001]/events[at0002]/data[at0003]/items[at0004]</t>
+  </si>
+  <si>
+    <t>openEHR-EHR-OBSERVATION.story.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0001]/items[openEHR-EHR-OBSERVATION.story.v1 and name/value='Story/History']/data[at0001]/events[at0002]/data[at0003]/items[at0004]</t>
+  </si>
+  <si>
+    <t>Story/History</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clinical description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-CLUSTER.symptom.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Course/Onset description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0001]/items[openEHR-EHR-OBSERVATION.story.v1 and name/value='Story/History']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.symptom.v1 and name/value='Symptom']/items[at0033]/items[at0060]</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0001]/items[openEHR-EHR-OBSERVATION.story.v1 and name/value='Story/History']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.symptom.v1 and name/value='Symptom']/items[at0002]</t>
+  </si>
+  <si>
+    <t>openEHR-EHR-OBSERVATION.third_party_observation.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.third_party_observation.v1 and name/value='Carer observation']/data[at0001]/events[at0002]/data[at0003]/items[at0005]</t>
+  </si>
+  <si>
+    <t>openEHR-EHR-OBSERVATION.exam.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-CLUSTER.exam-generic.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name of object</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.exam.v1 and name/value='Physical Examination Findings']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.exam-generic.v1 and name/value='Examination of a named body part']/items[at0.9]</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.exam.v1 and name/value='Physical Examination Findings']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.exam-generic.v1 and name/value='Examination of a named body part']/items[at0002]</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.exam.v1 and name/value='Physical Examination Findings']/data[at0001]/events[at0002]/data[at0003]/items[at0006 and name/value='Interpretation']</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-OBSERVATION.lab_test.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.lab_test.v1 and name/value='Laboratory test']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0078 and name/value='Result']</t>
+  </si>
+  <si>
+    <t>openEHR-EHR-INSTRUCTION.medication_order.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment or Overall Direction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0035 and name/value='Comment']</t>
+  </si>
+  <si>
+    <t>Medication Instruction Id</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/protocol[at0031]/items[at0032 and name/value='Medication Instruction Id']</t>
+  </si>
+  <si>
+    <t>Laboratory test result identifier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.lab_test.v1 and name/value='Laboratory test']/protocol[at0004]/items[at0068]</t>
+  </si>
+  <si>
+    <t>openEHR-EHR-EVALUATION.clinical_synopsis.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0003]/items[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical Synopsis']/data[at0001]/items[at0002]</t>
+  </si>
+  <si>
+    <t>openEHR-EHR-OBSERVATION.progress_note.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.progress_note.v1 and name/value='Progress Note']/data[at0001]/events[at0002]/data[at0003]/items[at0004]</t>
+  </si>
+  <si>
+    <t>*openEHR-EHR-INSTRUCTION.request.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*1 CommentとOverall directionのどちらが適当か</t>
+    <rPh sb="33" eb="35">
+      <t>テキトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Reaction type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir-mml.v1 and name/value='Adverse Reaction (FHIR/openEHR) for MML']/data[at0001]/items[at0058]</t>
-  </si>
-  <si>
-    <t>valueは Immune mediated に固定</t>
-    <rPh sb="24" eb="26">
-      <t>コテイ</t>
+    <t>*2 検査オーダーには検体検査、画像、病理といったものが含まれるためHeath service一般とした</t>
+    <rPh sb="3" eb="5">
+      <t>ケンサ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openEHR-EHR-OBSERVATION.lab_test-blood_match.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ABO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match.v1 and name/value='Blood matching']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0078.3]</t>
-  </si>
-  <si>
-    <t>Rhesus</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match.v1 and name/value='Blood matching']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0078.2]</t>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>others/type name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>others/judgement</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>others/description</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1 and name/value='Blood matching for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.95 and name/value='others']/items[at0.0.96]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1 and name/value='Blood matching for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.95 and name/value='others']/items[at0.0.97]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1 and name/value='Blood matching for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.95 and name/value='others']/items[at0.0.98]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1 and name/value='Blood matching for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.93]</t>
-  </si>
-  <si>
-    <t>Test name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0005]</t>
-  </si>
-  <si>
-    <t>Result</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0078 and name/value='Result']</t>
-  </si>
-  <si>
-    <t>Identified point of time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.40]</t>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.39]</t>
+    <rPh sb="11" eb="13">
+      <t>ケンタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ビョウリ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Service requested</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0035 and name/value='Comment']</t>
+  </si>
+  <si>
+    <t>openEHR-EHR-INSTRUCTION.request-procedure.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Procedure requested</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request-procedure.v1 and name/value='Procedure request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]</t>
+  </si>
+  <si>
+    <t>openEHR-EHR-INSTRUCTION.care_plan.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.care_plan.v1 and name/value='Care Plan']/activities[at0001]/description[at0004]/items[at0007]</t>
   </si>
 </sst>
 </file>
@@ -358,12 +511,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -395,7 +554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -410,6 +569,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,16 +874,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
@@ -729,497 +891,764 @@
     <col min="9" max="9" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2"/>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="H4" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="H5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="I7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" s="3"/>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="I10" s="4" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="I11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="J12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3"/>
       <c r="H13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="F14" s="3"/>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F15" s="3"/>
       <c r="I15" s="4" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="J15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E17" s="3" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F17" s="3"/>
+      <c r="H17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F18" s="3"/>
-      <c r="I18" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" t="s">
-        <v>81</v>
+      <c r="H18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F19" s="3"/>
-      <c r="I19" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" t="s">
-        <v>82</v>
+      <c r="H19" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="I21" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E22" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F22" s="3"/>
+      <c r="H22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F24" s="3"/>
-      <c r="I24" t="s">
-        <v>85</v>
-      </c>
-      <c r="J24" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F25" s="3"/>
-      <c r="I25" t="s">
-        <v>87</v>
+      <c r="H25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="J25" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F26" s="3"/>
       <c r="I26" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="J26" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="I27" t="s">
-        <v>91</v>
+      <c r="H27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="J27" t="s">
-        <v>92</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="I28" t="s">
+        <v>115</v>
+      </c>
+      <c r="J28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="H29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="H31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="I32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="H34" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="H36" t="s">
+        <v>112</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="H38" t="s">
+        <v>129</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="H40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B42" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="B43" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_base_clinic_mapping.xlsx
+++ b/mapping/mml_base_clinic_mapping.xlsx
@@ -876,7 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>

--- a/mapping/mml_base_clinic_mapping.xlsx
+++ b/mapping/mml_base_clinic_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
   <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
@@ -211,10 +211,6 @@
   </si>
   <si>
     <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir-mml.v1 and name/value='Adverse Reaction (FHIR/openEHR) for MML']/data[at0001]/items[at0009 and name/value='Reaction Event']/items[at0089]</t>
-  </si>
-  <si>
-    <t>Reaction event/Onset description</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir-mml.v1 and name/value='Adverse Reaction (FHIR/openEHR) for MML']/data[at0001]/items[at0009 and name/value='Reaction Event']/items[at0.117]</t>
@@ -305,28 +301,65 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0078 and name/value='Result']</t>
+  </si>
+  <si>
+    <t>Identified point of time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.40]</t>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.39]</t>
+  </si>
+  <si>
     <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0005]</t>
-  </si>
-  <si>
-    <t>Result</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0078 and name/value='Result']</t>
-  </si>
-  <si>
-    <t>Identified point of time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.40]</t>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.39]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 </t>
+  </si>
+  <si>
+    <t>Reaction event/Onset of the reaction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1 and name/value='Adverse Reaction Risk(FHIR/openEHR)']/data[at0001]/items[at0009 and name/value='Reaction event']/items[at0011 and name/value='Manifestation']</t>
+  </si>
+  <si>
+    <t>Manifestation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manifestation(発症状況）は必須項目であるが、MMLに項目がないため”MML record"と記録する</t>
+    <rPh sb="14" eb="16">
+      <t>ハッショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -358,12 +391,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -395,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -410,6 +449,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -841,13 +883,13 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
         <v>66</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>67</v>
-      </c>
-      <c r="K8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -858,13 +900,13 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
         <v>69</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>70</v>
-      </c>
-      <c r="K9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -907,10 +949,10 @@
       </c>
       <c r="F11" s="3"/>
       <c r="I11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" t="s">
         <v>62</v>
-      </c>
-      <c r="J11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -929,129 +971,123 @@
       </c>
       <c r="F12" s="3"/>
       <c r="I12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" t="s">
         <v>64</v>
       </c>
-      <c r="J12" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="H13" t="s">
-        <v>72</v>
+      <c r="I13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" t="s">
-        <v>74</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="H14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>75</v>
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F18" s="3"/>
-      <c r="I18" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
@@ -1060,40 +1096,38 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
@@ -1104,66 +1138,71 @@
       </c>
       <c r="F21" s="3"/>
       <c r="I21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="E22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="3"/>
+      <c r="I22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F24" s="3"/>
-      <c r="I24" t="s">
-        <v>85</v>
-      </c>
-      <c r="J24" t="s">
-        <v>86</v>
+      <c r="H24" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
@@ -1172,40 +1211,38 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="I26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
@@ -1216,10 +1253,37 @@
       </c>
       <c r="F27" s="3"/>
       <c r="I27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="I28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I31" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_base_clinic_mapping.xlsx
+++ b/mapping/mml_base_clinic_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
   <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
@@ -199,166 +199,184 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>substance</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir-mml.v1 and name/value='Adverse Reaction (FHIR/openEHR) for MML']/data[at0001]/items[at0002]</t>
-  </si>
-  <si>
     <t>Reaction event /Severity of Reaction</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir-mml.v1 and name/value='Adverse Reaction (FHIR/openEHR) for MML']/data[at0001]/items[at0009 and name/value='Reaction Event']/items[at0089]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir-mml.v1 and name/value='Adverse Reaction (FHIR/openEHR) for MML']/data[at0001]/items[at0009 and name/value='Reaction Event']/items[at0.117]</t>
-  </si>
-  <si>
     <t>Comment</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir-mml.v1 and name/value='Adverse Reaction (FHIR/openEHR) for MML']/data[at0001]/items[at0006]</t>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir-mml.v1 and name/value='Adverse Reaction (FHIR/openEHR) for MML']/data[at0001]/items[at0063]</t>
-  </si>
-  <si>
-    <t>valueは Confirmed に固定</t>
-    <rPh sb="18" eb="20">
+    <t>Reaction type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-OBSERVATION.lab_test-blood_match.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rhesus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>others/type name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>others/judgement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>others/description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Test name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Identified point of time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 </t>
+  </si>
+  <si>
+    <t>Reaction event/Onset of the reaction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1 and name/value='Adverse Reaction Risk(FHIR/openEHR)']/data[at0001]/items[at0009 and name/value='Reaction event']/items[at0011 and name/value='Manifestation']</t>
+  </si>
+  <si>
+    <t>Manifestation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Substance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1 and name/value='Adverse Reaction Risk(FHIR/openEHR)']/data[at0001]/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*値は"Allergy"に固定</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
       <t>コテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Reaction type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir-mml.v1 and name/value='Adverse Reaction (FHIR/openEHR) for MML']/data[at0001]/items[at0058]</t>
-  </si>
-  <si>
-    <t>valueは Immune mediated に固定</t>
-    <rPh sb="24" eb="26">
+    <t>*値は" Immune mediated" に固定</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
       <t>コテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>openEHR-EHR-OBSERVATION.lab_test-blood_match.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ABO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match.v1 and name/value='Blood matching']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0078.3]</t>
-  </si>
-  <si>
-    <t>Rhesus</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match.v1 and name/value='Blood matching']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0078.2]</t>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>others/type name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>others/judgement</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>others/description</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1 and name/value='Blood matching for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.95 and name/value='others']/items[at0.0.96]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1 and name/value='Blood matching for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.95 and name/value='others']/items[at0.0.97]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1 and name/value='Blood matching for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.95 and name/value='others']/items[at0.0.98]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1 and name/value='Blood matching for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.93]</t>
-  </si>
-  <si>
-    <t>Test name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Result</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0078 and name/value='Result']</t>
-  </si>
-  <si>
-    <t>Identified point of time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.40]</t>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.39]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0005]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 </t>
-  </si>
-  <si>
-    <t>Reaction event/Onset of the reaction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1 and name/value='Adverse Reaction Risk(FHIR/openEHR)']/data[at0001]/items[at0009 and name/value='Reaction event']/items[at0011 and name/value='Manifestation']</t>
-  </si>
-  <si>
-    <t>Manifestation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Manifestation(発症状況）は必須項目であるが、MMLに項目がないため”MML record"と記録する</t>
-    <rPh sb="14" eb="16">
-      <t>ハッショウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>キロク</t>
-    </rPh>
+    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir-mml.v1 and name/value='Adverse Reaction (FHIR/openEHR) for MML']/data[at0001]/items[at0058]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1 and name/value='Adverse Reaction Risk(FHIR/openEHR)']/data[at0001]/items[at0009 and name/value='Reaction event']/items[at0089]</t>
+  </si>
+  <si>
+    <t>DV_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1 and name/value='Adverse Reaction Risk(FHIR/openEHR)']/data[at0001]/items[at0009 and name/value='Reaction event']/items[at0027]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1 and name/value='Adverse Reaction Risk(FHIR/openEHR)']/data[at0001]/items[at0006]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1 and name/value='Blood matching for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0078.3]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match.v1 and name/value='Blood matching']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0078.2]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1 and name/value='Blood matching for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.95 and name/value='others']/items[at0.0.96]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1 and name/value='Blood matching for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.95 and name/value='others']/items[at0.0.97]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1 and name/value='Blood matching for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.95 and name/value='others']/items[at0.0.98]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1 and name/value='Blood matching for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.93]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0005]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0078 and name/value='Result']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.40]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.39]/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -754,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -767,8 +785,9 @@
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="8" max="8" width="53.375" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
     <col min="9" max="9" width="31.5" customWidth="1"/>
+    <col min="10" max="10" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -788,6 +807,9 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -869,10 +891,13 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -882,39 +907,52 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
+      <c r="H8" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="I9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" t="s">
-        <v>69</v>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
@@ -923,22 +961,23 @@
       <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>60</v>
+      <c r="F10" s="3"/>
+      <c r="I10" t="s">
+        <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>61</v>
+        <v>86</v>
+      </c>
+      <c r="K10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
@@ -949,145 +988,179 @@
       </c>
       <c r="F11" s="3"/>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>88</v>
+      </c>
+      <c r="K11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="I12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" t="s">
-        <v>64</v>
+      <c r="H12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F13" s="3"/>
-      <c r="I13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" t="s">
-        <v>94</v>
+      <c r="H13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="H14" t="s">
-        <v>71</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" t="s">
-        <v>73</v>
+        <v>34</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>74</v>
+      <c r="F16" s="3"/>
+      <c r="I16" t="s">
+        <v>65</v>
       </c>
       <c r="J16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+      <c r="K16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
@@ -1096,38 +1169,37 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="J19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+      <c r="K19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F20" s="3"/>
-      <c r="I20" t="s">
-        <v>78</v>
-      </c>
-      <c r="J20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
@@ -1137,72 +1209,85 @@
         <v>11</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="I21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="3"/>
       <c r="I22" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+      <c r="K22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="H24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
@@ -1211,38 +1296,37 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="I25" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+      <c r="K25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F26" s="3"/>
-      <c r="I26" t="s">
-        <v>85</v>
-      </c>
-      <c r="J26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
@@ -1252,39 +1336,6 @@
         <v>11</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="I27" t="s">
-        <v>87</v>
-      </c>
-      <c r="J27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="I28" t="s">
-        <v>89</v>
-      </c>
-      <c r="J28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="I31" t="s">
-        <v>96</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/mapping/mml_base_clinic_mapping.xlsx
+++ b/mapping/mml_base_clinic_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="102">
   <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
@@ -247,10 +247,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Identified point of time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Comment</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -260,9 +256,6 @@
   <si>
     <t>Reaction event/Onset of the reaction</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1 and name/value='Adverse Reaction Risk(FHIR/openEHR)']/data[at0001]/items[at0009 and name/value='Reaction event']/items[at0011 and name/value='Manifestation']</t>
   </si>
   <si>
     <t>Manifestation</t>
@@ -317,9 +310,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1 and name/value='Adverse Reaction Risk(FHIR/openEHR)']/data[at0001]/items[at0009 and name/value='Reaction event']/items[at0089]</t>
-  </si>
-  <si>
     <t>DV_DATE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -372,11 +362,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.40]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.39]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1 and name/value='Adverse Reaction Risk(FHIR/openEHR)']/data[at0001]/items[at0009 and name/value='Reaction event']/items[at0089]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1 and name/value='Adverse Reaction Risk(FHIR/openEHR)']/data[at0001]/items[at0009 and name/value='Reaction event']/items[at0011 and name/value='Manifestation']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>protocol/Datetime result issued</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/protocol[at0004]/items[at0075]//value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -774,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -807,7 +813,7 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -891,13 +897,13 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
         <v>77</v>
       </c>
-      <c r="J7" t="s">
-        <v>79</v>
-      </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -908,16 +914,16 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="H8" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
         <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -941,10 +947,10 @@
         <v>58</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -963,13 +969,13 @@
       </c>
       <c r="F10" s="3"/>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -991,10 +997,10 @@
         <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -1005,16 +1011,16 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="H12" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -1053,10 +1059,10 @@
         <v>62</v>
       </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
@@ -1080,10 +1086,10 @@
         <v>63</v>
       </c>
       <c r="J15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" t="s">
         <v>88</v>
-      </c>
-      <c r="K15" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -1103,10 +1109,10 @@
         <v>65</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -1126,10 +1132,10 @@
         <v>66</v>
       </c>
       <c r="J17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -1149,10 +1155,10 @@
         <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -1172,10 +1178,10 @@
         <v>64</v>
       </c>
       <c r="J19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1210,7 +1216,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -1226,15 +1232,6 @@
         <v>11</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="I22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" t="s">
-        <v>96</v>
-      </c>
-      <c r="K22" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
@@ -1249,15 +1246,6 @@
         <v>18</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="I23" t="s">
-        <v>69</v>
-      </c>
-      <c r="J23" t="s">
-        <v>88</v>
-      </c>
-      <c r="K23" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
@@ -1273,13 +1261,13 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="I24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J24" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
@@ -1296,13 +1284,13 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="I25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -1320,6 +1308,15 @@
         <v>11</v>
       </c>
       <c r="F26" s="3"/>
+      <c r="I26" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
@@ -1336,6 +1333,15 @@
         <v>11</v>
       </c>
       <c r="F27" s="3"/>
+      <c r="I27" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/mapping/mml_base_clinic_mapping.xlsx
+++ b/mapping/mml_base_clinic_mapping.xlsx
@@ -2,21 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15240" windowHeight="8160"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15240" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
   <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
@@ -73,9 +71,6 @@
     <t>1.1.1.</t>
   </si>
   <si>
-    <t>mmlBc:allergyItem</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -106,9 +101,6 @@
     <t>mmlBc:memo</t>
   </si>
   <si>
-    <t>mmlBc:bloodtype</t>
-  </si>
-  <si>
     <t>1.2.1.</t>
   </si>
   <si>
@@ -163,15 +155,9 @@
     <t>1.2.4.</t>
   </si>
   <si>
-    <t>mmlBc:infection</t>
-  </si>
-  <si>
     <t>1.3.1.</t>
   </si>
   <si>
-    <t>mmlBc:infectionItem</t>
-  </si>
-  <si>
     <t>1.3.1.1.</t>
   </si>
   <si>
@@ -267,10 +253,6 @@
   </si>
   <si>
     <t>Substance</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1 and name/value='Adverse Reaction Risk(FHIR/openEHR)']/data[at0001]/items[at0002]/value</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -306,71 +288,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir-mml.v1 and name/value='Adverse Reaction (FHIR/openEHR) for MML']/data[at0001]/items[at0058]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1 and name/value='Adverse Reaction Risk(FHIR/openEHR)']/data[at0001]/items[at0009 and name/value='Reaction event']/items[at0027]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DV_TEXT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1 and name/value='Adverse Reaction Risk(FHIR/openEHR)']/data[at0001]/items[at0006]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1 and name/value='Blood matching for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0078.3]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match.v1 and name/value='Blood matching']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0078.2]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1 and name/value='Blood matching for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.95 and name/value='others']/items[at0.0.96]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1 and name/value='Blood matching for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.95 and name/value='others']/items[at0.0.97]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1 and name/value='Blood matching for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.95 and name/value='others']/items[at0.0.98]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1 and name/value='Blood matching for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.93]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DV_TEXT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0005]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0078 and name/value='Result']/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0.0.39]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1 and name/value='Adverse Reaction Risk(FHIR/openEHR)']/data[at0001]/items[at0009 and name/value='Reaction event']/items[at0089]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1 and name/value='Adverse Reaction Risk(FHIR/openEHR)']/data[at0001]/items[at0009 and name/value='Reaction event']/items[at0011 and name/value='Manifestation']/value</t>
+    <t>mmlBc:allergyItem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlBc:bloodtype</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlBc:infection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlBc:infectionItem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_DATE_TIME</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -378,11 +320,57 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DV_DATETIME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1 and name/value='Microbiolology for MML']/protocol[at0004]/items[at0075]//value</t>
+    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1]/data[at0001]/items[at0002]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1]/data[at0001]/items[at0006]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1]/data[at0001]/items[at0009]/items[at0027]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1]/data[at0001]/items[at0009]/items[at0089]/defining_code/code_string</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0078.3]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0.0.95]/items[at0.0.97]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0.0.95]/items[at0.0.98]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0.0.93]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0005]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0.0.39]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0078]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1]/data[at0001]/items[at0058]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.adverse_reaction_fhir.v1]/data[at0001]/items[at0009]/items[at0011]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0078.2]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-blood_match-mml.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0.0.95]/items[at0.0.96]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.lab_test-microbiology-mml.v1]/protocol[at0004]/items[at0075]/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -390,7 +378,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +399,23 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -453,18 +458,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -477,11 +482,66 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -778,600 +838,600 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E15" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:K25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="5.625" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="5" customWidth="1"/>
     <col min="9" max="9" width="31.5" customWidth="1"/>
     <col min="10" max="10" width="16.75" customWidth="1"/>
+    <col min="11" max="11" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="H2" t="s">
+      <c r="A2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="H2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
       <c r="J2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="H5" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="I7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="H8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="K9" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="H5" t="s">
+      <c r="F10" s="2"/>
+      <c r="I10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="I11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="H12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="H13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="I18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="I19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="I20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="I21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="F23" s="2"/>
+      <c r="H23" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="I7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="I24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="I25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" t="s">
         <v>77</v>
       </c>
-      <c r="K7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="K25" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="F26" s="2"/>
+      <c r="I26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="I10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="I11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="H13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="I16" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="I17" t="s">
+      <c r="F27" s="2"/>
+      <c r="I27" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J17" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="I18" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="I19" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="H21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="I24" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" t="s">
-        <v>93</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="J27" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="15" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="I25" t="s">
-        <v>69</v>
-      </c>
-      <c r="J25" t="s">
-        <v>85</v>
-      </c>
-      <c r="K25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="I26" t="s">
-        <v>99</v>
-      </c>
-      <c r="J26" t="s">
-        <v>100</v>
-      </c>
-      <c r="K26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="I27" t="s">
-        <v>70</v>
-      </c>
-      <c r="J27" t="s">
-        <v>85</v>
-      </c>
-      <c r="K27" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="I7" location="Sheet2!$B$32" display="Substance"/>
+    <hyperlink ref="I8" location="Sheet2!$B$42" display="Reaction type"/>
+    <hyperlink ref="I9" location="Sheet2!$B$94" display="Reaction event /Severity of Reaction"/>
+    <hyperlink ref="I10" location="Sheet2!$B$84" display="Reaction event/Onset of the reaction"/>
+    <hyperlink ref="I11" location="Sheet2!$B$58" display="Comment"/>
+    <hyperlink ref="I12" location="Sheet2!$B$74" display="Manifestation"/>
+    <hyperlink ref="I14" location="Sheet2!$B$257" display="ABO"/>
+    <hyperlink ref="I15" location="Sheet2!$B$267" display="Rhesus"/>
+    <hyperlink ref="I18" location="Sheet2!$B$283" display="others/type name"/>
+    <hyperlink ref="I19" location="Sheet2!$B$293" display="others/judgement"/>
+    <hyperlink ref="I20" location="Sheet2!$B$303" display="others/description"/>
+    <hyperlink ref="I21" location="Sheet2!$B$313" display="Comment"/>
+    <hyperlink ref="I24" location="Sheet2!$B$360" display="Test name"/>
+    <hyperlink ref="I25" location="Sheet2!$B$378" display="Result"/>
+    <hyperlink ref="I26" location="Sheet2!$B$418" display="protocol/Datetime result issued"/>
+    <hyperlink ref="I27" location="Sheet2!$B$392" display="Comment"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>